--- a/xlsx/城堡_intext.xlsx
+++ b/xlsx/城堡_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="153">
   <si>
     <t>城堡</t>
   </si>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E6%A8%93</t>
   </si>
   <si>
-    <t>塔樓</t>
+    <t>塔楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E5%AD%97%E5%86%9B</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%BE%B7%E5%BE%A9%E8%88%88%E5%BC%8F%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>哥德復興式建築</t>
+    <t>哥德复兴式建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6%E5%A1%94</t>
@@ -179,13 +179,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E8%8E%8E%E5%9F%8E%E5%A0%A1</t>
   </si>
   <si>
-    <t>溫莎城堡</t>
+    <t>温莎城堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>現代英語</t>
+    <t>现代英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E8%8B%B1%E8%AF%AD</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E5%BB%BA%E5%88%B6%E5%BA%A6_(%E6%AD%90%E6%B4%B2)</t>
   </si>
   <si>
-    <t>封建制度 (歐洲)</t>
+    <t>封建制度 (欧洲)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/vassal</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E8%98%AD%E4%B8%AD%E9%83%A8%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>英格蘭中部地區</t>
+    <t>英格兰中部地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%93%81%E5%99%A8%E6%97%B6%E4%BB%A3</t>
@@ -293,7 +293,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E9%84%89%E6%9D%91%E5%88%A5%E5%A2%85</t>
   </si>
   <si>
-    <t>英國鄉村別墅</t>
+    <t>英国乡村别墅</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/country_house</t>
@@ -323,19 +323,16 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E6%9B%BC%E4%BA%BA</t>
   </si>
   <si>
-    <t>諾曼人</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E5%AD%97%E8%BB%8D%E6%9D%B1%E5%BE%81</t>
   </si>
   <si>
-    <t>十字軍東征</t>
+    <t>十字军东征</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%9C%E5%8D%A0%E5%BA%AD</t>
@@ -371,9 +368,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6%E5%A1%94</t>
   </si>
   <si>
-    <t>倫敦塔</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%96%AF%E6%B9%96</t>
   </si>
   <si>
@@ -389,19 +383,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A4%A9%E9%B5%9D%E5%A0%A1</t>
   </si>
   <si>
-    <t>新天鵝堡</t>
+    <t>新天鹅堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E7%BD%95%E5%B8%83%E6%8B%89%E5%AE%AE</t>
   </si>
   <si>
-    <t>阿爾罕布拉宮</t>
+    <t>阿尔罕布拉宫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%A2%E5%A0%A1</t>
   </si>
   <si>
-    <t>塢堡</t>
+    <t>坞堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%89%E7%90%83%E5%BC%8F%E5%9F%8E%E5%A0%A1</t>
@@ -443,7 +437,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -467,13 +461,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -2329,7 +2323,7 @@
         <v>103</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2355,10 +2349,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2384,10 +2378,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2413,10 +2407,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2442,10 +2436,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>3</v>
@@ -2471,10 +2465,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2500,10 +2494,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2529,10 +2523,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2558,10 +2552,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2587,10 +2581,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2616,10 +2610,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F62" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2645,10 +2639,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2674,10 +2668,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F64" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2703,10 +2697,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -2761,10 +2755,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2790,10 +2784,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2819,10 +2813,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2848,10 +2842,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -2877,10 +2871,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -2906,10 +2900,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>3</v>
@@ -2935,10 +2929,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -2964,10 +2958,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -2993,10 +2987,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3022,10 +3016,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3051,10 +3045,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3080,10 +3074,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
